--- a/March'21/30.03.2021/Daily Sales Info..xlsx
+++ b/March'21/30.03.2021/Daily Sales Info..xlsx
@@ -1403,6 +1403,9 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1481,15 +1484,142 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1424">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -1503,6 +1633,112 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF006100"/>
@@ -1517,13 +1753,234 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1545,79 +2002,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1635,18 +2032,61 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1681,23 +2121,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF9C0006"/>
@@ -1770,20 +2193,34 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1801,234 +2238,13 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2043,119 +2259,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -2164,109 +2267,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -14104,80 +14104,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <v>636977</v>
@@ -14207,19 +14207,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -14231,13 +14231,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -15435,11 +15435,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>99755</v>
@@ -15510,11 +15510,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>537222</v>
@@ -15551,14 +15551,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -15814,80 +15814,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
@@ -15926,19 +15926,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>319481</v>
@@ -15960,13 +15960,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -17135,11 +17135,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>233349</v>
@@ -17210,11 +17210,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>699261</v>
@@ -17251,14 +17251,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -17512,80 +17512,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
@@ -17624,19 +17624,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -17648,13 +17648,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -18841,11 +18841,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>196897</v>
@@ -18916,11 +18916,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>502364</v>
@@ -18957,14 +18957,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -19218,80 +19218,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
@@ -19330,19 +19330,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -19354,13 +19354,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -20391,11 +20391,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -20466,11 +20466,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>502364</v>
@@ -20507,14 +20507,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -20768,80 +20768,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
@@ -20880,19 +20880,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -20906,13 +20906,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -22081,11 +22081,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>171084</v>
@@ -22156,11 +22156,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>642968</v>
@@ -22197,14 +22197,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -22441,8 +22441,8 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22459,80 +22459,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
@@ -22571,21 +22571,21 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="119"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="120"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>391382</v>
@@ -22599,15 +22599,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -23934,11 +23934,11 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="7">SUM(D7:D27)</f>
         <v>272809</v>
@@ -24017,11 +24017,11 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>761541</v>
@@ -24058,16 +24058,16 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="120"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="120"/>
-      <c r="V29" s="120"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -24323,80 +24323,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
@@ -24435,21 +24435,21 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="119"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="120"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -24461,15 +24461,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
     </row>
     <row r="6" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -25798,11 +25798,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="7">SUM(D7:D27)</f>
         <v>303665</v>
@@ -25881,11 +25881,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>457876</v>
@@ -25922,16 +25922,16 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="M29" s="122"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="124"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="124"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="124"/>
+      <c r="S29" s="124"/>
+      <c r="T29" s="124"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="125"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -26260,80 +26260,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
@@ -26372,19 +26372,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>623377</v>
@@ -26398,13 +26398,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -27569,11 +27569,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>167961</v>
@@ -27644,11 +27644,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>913292</v>
@@ -27685,14 +27685,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -27946,80 +27946,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
@@ -28058,19 +28058,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -28082,13 +28082,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -29207,11 +29207,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>34358</v>
@@ -29286,11 +29286,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>878934</v>
@@ -29327,14 +29327,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
       <c r="U29" s="76"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -29590,80 +29590,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
@@ -29702,19 +29702,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>70961</v>
@@ -29728,13 +29728,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -31011,11 +31011,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>419417</v>
@@ -31090,11 +31090,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>530478</v>
@@ -31131,15 +31131,15 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="120"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="120"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -31405,80 +31405,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
@@ -31517,19 +31517,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -31541,13 +31541,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -32578,11 +32578,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -32653,11 +32653,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>530478</v>
@@ -32694,14 +32694,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -32958,80 +32958,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D29</f>
@@ -33070,19 +33070,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>474480</v>
@@ -33096,13 +33096,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -34321,11 +34321,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>117500</v>
@@ -34396,11 +34396,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>894202</v>
@@ -34437,14 +34437,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -34700,80 +34700,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
@@ -34812,19 +34812,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4">
@@ -34846,13 +34846,13 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -36031,11 +36031,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>258598</v>
@@ -36106,11 +36106,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>271880</v>
@@ -36147,14 +36147,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -36460,80 +36460,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
@@ -36572,19 +36572,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>415584</v>
@@ -36598,13 +36598,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -37779,11 +37779,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>166877</v>
@@ -37854,11 +37854,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>520587</v>
@@ -37895,14 +37895,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -38157,80 +38157,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
@@ -38269,19 +38269,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -38295,13 +38295,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -39506,11 +39506,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>160663</v>
@@ -39581,11 +39581,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>671612</v>
@@ -39622,14 +39622,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -39883,80 +39883,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
@@ -39995,19 +39995,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -40019,13 +40019,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -41226,11 +41226,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>180974</v>
@@ -41301,11 +41301,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>490638</v>
@@ -41342,14 +41342,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -41604,80 +41604,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
@@ -41716,21 +41716,21 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="119"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="120"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311689</v>
@@ -41746,15 +41746,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -43044,11 +43044,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="7">SUM(D7:D27)</f>
         <v>195325</v>
@@ -43127,11 +43127,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>607002</v>
@@ -43168,16 +43168,16 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="M29" s="122"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="124"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="124"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="124"/>
+      <c r="S29" s="124"/>
+      <c r="T29" s="124"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="125"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -43474,80 +43474,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
@@ -43586,21 +43586,21 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="119"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="120"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -43614,15 +43614,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
     </row>
     <row r="6" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -44911,11 +44911,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="7">SUM(D7:D27)</f>
         <v>234236</v>
@@ -44994,11 +44994,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>684454</v>
@@ -45035,16 +45035,16 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="M29" s="122"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="124"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="124"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="124"/>
+      <c r="S29" s="124"/>
+      <c r="T29" s="124"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="125"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -45319,80 +45319,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
@@ -45431,19 +45431,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -45455,13 +45455,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -46492,11 +46492,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -46567,11 +46567,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>684454</v>
@@ -46608,14 +46608,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -46869,80 +46869,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
@@ -46981,19 +46981,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -47005,13 +47005,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -48194,11 +48194,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>199289</v>
@@ -48269,11 +48269,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>485165</v>
@@ -48310,14 +48310,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -48571,80 +48571,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
@@ -48683,19 +48683,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -48709,13 +48709,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -49924,11 +49924,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>206401</v>
@@ -49999,11 +49999,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>590452</v>
@@ -50040,14 +50040,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -50301,80 +50301,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
@@ -50413,19 +50413,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>519480</v>
@@ -50439,13 +50439,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -51619,11 +51619,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>159675</v>
@@ -51694,11 +51694,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>950257</v>
@@ -51735,14 +51735,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -51996,80 +51996,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'2'!D29</f>
@@ -52108,19 +52108,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -52134,13 +52134,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -53341,11 +53341,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>136699</v>
@@ -53416,11 +53416,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>757503</v>
@@ -53457,14 +53457,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -53701,8 +53701,8 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53719,80 +53719,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
@@ -53831,21 +53831,21 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="127"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="101"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -53857,14 +53857,14 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="127"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="101"/>
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -53988,7 +53988,7 @@
         <f>S7-Q7</f>
         <v>101.54249999999999</v>
       </c>
-      <c r="U7" s="127">
+      <c r="U7" s="101">
         <v>117</v>
       </c>
       <c r="V7" s="58">
@@ -54047,7 +54047,7 @@
         <f t="shared" ref="T8:T27" si="5">S8-Q8</f>
         <v>88.125</v>
       </c>
-      <c r="U8" s="127">
+      <c r="U8" s="101">
         <v>108</v>
       </c>
       <c r="V8" s="58">
@@ -54108,7 +54108,7 @@
         <f t="shared" si="5"/>
         <v>58.083499999999987</v>
       </c>
-      <c r="U9" s="127">
+      <c r="U9" s="101">
         <v>149</v>
       </c>
       <c r="V9" s="58">
@@ -54165,7 +54165,7 @@
         <f t="shared" si="5"/>
         <v>68.448499999999996</v>
       </c>
-      <c r="U10" s="127">
+      <c r="U10" s="101">
         <v>18</v>
       </c>
       <c r="V10" s="58">
@@ -54226,7 +54226,7 @@
         <f t="shared" si="5"/>
         <v>120.93600000000001</v>
       </c>
-      <c r="U11" s="127">
+      <c r="U11" s="101">
         <v>117</v>
       </c>
       <c r="V11" s="58">
@@ -54283,7 +54283,7 @@
         <f t="shared" si="5"/>
         <v>90.233499999999992</v>
       </c>
-      <c r="U12" s="127">
+      <c r="U12" s="101">
         <v>117</v>
       </c>
       <c r="V12" s="58">
@@ -54342,7 +54342,7 @@
         <f t="shared" si="5"/>
         <v>22.539000000000001</v>
       </c>
-      <c r="U13" s="127">
+      <c r="U13" s="101">
         <v>54</v>
       </c>
       <c r="V13" s="58">
@@ -54399,7 +54399,7 @@
         <f t="shared" si="5"/>
         <v>491.99249999999995</v>
       </c>
-      <c r="U14" s="127">
+      <c r="U14" s="101">
         <v>666</v>
       </c>
       <c r="V14" s="58">
@@ -54460,7 +54460,7 @@
         <f t="shared" si="5"/>
         <v>42.986500000000007</v>
       </c>
-      <c r="U15" s="127">
+      <c r="U15" s="101">
         <v>135</v>
       </c>
       <c r="V15" s="58">
@@ -54525,7 +54525,7 @@
         <f t="shared" si="5"/>
         <v>298.26749999999998</v>
       </c>
-      <c r="U16" s="127">
+      <c r="U16" s="101">
         <v>324</v>
       </c>
       <c r="V16" s="58">
@@ -54588,7 +54588,7 @@
         <f t="shared" si="5"/>
         <v>65.99799999999999</v>
       </c>
-      <c r="U17" s="127">
+      <c r="U17" s="101">
         <v>162</v>
       </c>
       <c r="V17" s="58">
@@ -54649,7 +54649,7 @@
         <f t="shared" si="5"/>
         <v>43.552999999999997</v>
       </c>
-      <c r="U18" s="127">
+      <c r="U18" s="101">
         <v>144</v>
       </c>
       <c r="V18" s="58">
@@ -54710,7 +54710,7 @@
         <f t="shared" si="5"/>
         <v>218.83499999999998</v>
       </c>
-      <c r="U19" s="127">
+      <c r="U19" s="101">
         <v>342</v>
       </c>
       <c r="V19" s="58">
@@ -54771,7 +54771,7 @@
         <f t="shared" si="5"/>
         <v>0.25099999999999056</v>
       </c>
-      <c r="U20" s="127">
+      <c r="U20" s="101">
         <v>72</v>
       </c>
       <c r="V20" s="58">
@@ -54830,7 +54830,7 @@
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="U21" s="127">
+      <c r="U21" s="101">
         <v>36</v>
       </c>
       <c r="V21" s="58">
@@ -54895,7 +54895,7 @@
         <f t="shared" si="5"/>
         <v>610</v>
       </c>
-      <c r="U22" s="127">
+      <c r="U22" s="101">
         <v>522</v>
       </c>
       <c r="V22" s="58">
@@ -54952,7 +54952,7 @@
         <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
-      <c r="U23" s="127">
+      <c r="U23" s="101">
         <v>99</v>
       </c>
       <c r="V23" s="58">
@@ -55011,7 +55011,7 @@
         <f t="shared" si="5"/>
         <v>390</v>
       </c>
-      <c r="U24" s="127">
+      <c r="U24" s="101">
         <v>540</v>
       </c>
       <c r="V24" s="58">
@@ -55068,7 +55068,7 @@
         <f t="shared" si="5"/>
         <v>119.41050000000001</v>
       </c>
-      <c r="U25" s="127">
+      <c r="U25" s="101">
         <v>189</v>
       </c>
       <c r="V25" s="58">
@@ -55125,7 +55125,7 @@
         <f t="shared" si="5"/>
         <v>101.94399999999999</v>
       </c>
-      <c r="U26" s="127">
+      <c r="U26" s="101">
         <v>171</v>
       </c>
       <c r="V26" s="58">
@@ -55182,18 +55182,18 @@
         <f t="shared" si="5"/>
         <v>63.115000000000009</v>
       </c>
-      <c r="U27" s="127"/>
+      <c r="U27" s="101"/>
       <c r="V27" s="58">
         <f t="shared" si="6"/>
         <v>16597.825000000001</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="7">SUM(D7:D27)</f>
         <v>562048</v>
@@ -55272,11 +55272,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>388209</v>
@@ -55313,15 +55313,15 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="108"/>
-      <c r="U29" s="127"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="101"/>
       <c r="V29" s="76"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -55551,22 +55551,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55596,80 +55596,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
@@ -55708,19 +55708,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -55732,13 +55732,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -56769,11 +56769,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -56844,11 +56844,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>388209</v>
@@ -56885,14 +56885,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -56930,193 +56930,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="88" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="87" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="85" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="83" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="81" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="79" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="78" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="75" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="74" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="73" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="72" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="71" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="70" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="69" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="66" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="65" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="64" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="61" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="58" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="57" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="56" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="55" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="54" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="53" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="52" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="51" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="50" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57146,80 +57146,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D4</f>
@@ -57258,19 +57258,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>'1'!D5+'2'!D5+'3'!D5+'4'!D5+'5'!D5+'6'!D5+'7'!D5+'8'!D5+'9'!D5+'10'!D5+'11'!D5+'12'!D5+'13'!D5+'14'!D5+'15'!D5+'16'!D5+'17'!D5+'18'!D5+'19'!D5+'20'!D5+'21'!D5+'22'!D5+'23'!D5+'24'!D5+'25'!D5+'26'!D5+'27'!D5+'28'!D5+'29'!D5+'30'!D5+'31'!D5</f>
@@ -57309,13 +57309,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -58976,11 +58976,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>5457266</v>
@@ -59051,11 +59051,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>388209</v>
@@ -59092,14 +59092,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -59137,188 +59137,188 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E28:K29 E4:H4 E6:H6">
-    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E28:K29 E4 E6">
-    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F28:F29 F4 F6">
-    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G29 G4 G6">
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29 H4 H6">
-    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="35" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:K28 E4 E6">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I29 I4 I6">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J29 J4 J6">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K29 K4 K6">
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7 Q8:Q27 D8:L27">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:L5">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59349,80 +59349,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'3'!D29</f>
@@ -59461,19 +59461,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>523377</v>
@@ -59487,13 +59487,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -60682,11 +60682,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>176426</v>
@@ -60757,11 +60757,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>1104454</v>
@@ -60798,14 +60798,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -61059,80 +61059,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'4'!D29</f>
@@ -61174,19 +61174,19 @@
         <f>'4'!M29</f>
         <v>0</v>
       </c>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -61198,13 +61198,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -62235,11 +62235,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -62310,11 +62310,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>1104454</v>
@@ -62351,14 +62351,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -62612,80 +62612,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'5'!D29</f>
@@ -62724,19 +62724,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -62748,13 +62748,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -63929,11 +63929,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>243859</v>
@@ -64004,11 +64004,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>860595</v>
@@ -64045,14 +64045,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -64306,80 +64306,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
@@ -64418,19 +64418,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4">
@@ -64444,13 +64444,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -65633,11 +65633,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>290814</v>
@@ -65708,11 +65708,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>569781</v>
@@ -65749,14 +65749,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -66011,80 +66011,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
@@ -66123,19 +66123,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311935</v>
@@ -66149,13 +66149,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -67318,11 +67318,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>70895</v>
@@ -67393,11 +67393,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>810821</v>
@@ -67434,14 +67434,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -67695,80 +67695,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
@@ -67807,19 +67807,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -67831,13 +67831,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -69008,11 +69008,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>197692</v>
@@ -69083,11 +69083,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>613129</v>
@@ -69124,14 +69124,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="110"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
